--- a/Segundo Parcial/assignment-14/db/books.xlsx
+++ b/Segundo Parcial/assignment-14/db/books.xlsx
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Disponible</t>
+          <t>Reservado</t>
         </is>
       </c>
     </row>
